--- a/biology/Médecine/Scipione_Riva-Rocci/Scipione_Riva-Rocci.xlsx
+++ b/biology/Médecine/Scipione_Riva-Rocci/Scipione_Riva-Rocci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scipione Riva-Rocci (né le 7 août 1863 à Almèse, Piémont – mort le 15 mars 1937 à Rapallo) est un médecin italien qui invente le premier sphygmomanomètre pour la prise de la tension artérielle[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scipione Riva-Rocci (né le 7 août 1863 à Almèse, Piémont – mort le 15 mars 1937 à Rapallo) est un médecin italien qui invente le premier sphygmomanomètre pour la prise de la tension artérielle.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son diplôme de médecine en 1888 de l'Université de Turin et de 1900 à 1928, il occupe le poste de directeur de l'hôpital de Varèse.
-En 1896, Riva-Rocci invente un sphygmomanomètre sensible à la pression artérielle qui sera repris en 1905, par Nikolaï Korotkov qui y ajoute l’utilisation d’un stéthoscope sur l’artère brachiale, ce qui permet d’entendre des bruits beaucoup plus précis. Victor Pachon y rajoute, lui, un oscillomètre, ce qui permet de mesurer la tension artérielle sans stéthoscope[2].
+En 1896, Riva-Rocci invente un sphygmomanomètre sensible à la pression artérielle qui sera repris en 1905, par Nikolaï Korotkov qui y ajoute l’utilisation d’un stéthoscope sur l’artère brachiale, ce qui permet d’entendre des bruits beaucoup plus précis. Victor Pachon y rajoute, lui, un oscillomètre, ce qui permet de mesurer la tension artérielle sans stéthoscope.
 </t>
         </is>
       </c>
